--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -525,22 +525,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H2">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I2">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J2">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.738965666666667</v>
+        <v>1.704784666666667</v>
       </c>
       <c r="N2">
-        <v>8.216896999999999</v>
+        <v>5.114354000000001</v>
       </c>
       <c r="O2">
-        <v>0.9885371800267031</v>
+        <v>0.981710618882129</v>
       </c>
       <c r="P2">
-        <v>0.988537180026703</v>
+        <v>0.981710618882129</v>
       </c>
       <c r="Q2">
-        <v>129.5728449745268</v>
+        <v>1.883157991124667</v>
       </c>
       <c r="R2">
-        <v>1166.155604770741</v>
+        <v>16.948421920122</v>
       </c>
       <c r="S2">
-        <v>0.9852039985429699</v>
+        <v>0.8574704241852382</v>
       </c>
       <c r="T2">
-        <v>0.9852039985429699</v>
+        <v>0.8574704241852383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H3">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I3">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J3">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,25 +614,25 @@
         <v>0.03176033333333333</v>
       </c>
       <c r="N3">
-        <v>0.09528099999999999</v>
+        <v>0.095281</v>
       </c>
       <c r="O3">
-        <v>0.01146281997329701</v>
+        <v>0.01828938111787102</v>
       </c>
       <c r="P3">
-        <v>0.01146281997329701</v>
+        <v>0.01828938111787102</v>
       </c>
       <c r="Q3">
-        <v>1.502493002165889</v>
+        <v>0.03508344877033334</v>
       </c>
       <c r="R3">
-        <v>13.522437019493</v>
+        <v>0.315751038933</v>
       </c>
       <c r="S3">
-        <v>0.01142416926793322</v>
+        <v>0.01597477208006987</v>
       </c>
       <c r="T3">
-        <v>0.01142416926793322</v>
+        <v>0.01597477208006988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.480155</v>
       </c>
       <c r="I4">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J4">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.738965666666667</v>
+        <v>1.704784666666667</v>
       </c>
       <c r="N4">
-        <v>8.216896999999999</v>
+        <v>5.114354000000001</v>
       </c>
       <c r="O4">
-        <v>0.9885371800267031</v>
+        <v>0.981710618882129</v>
       </c>
       <c r="P4">
-        <v>0.988537180026703</v>
+        <v>0.981710618882129</v>
       </c>
       <c r="Q4">
-        <v>0.4383760198927778</v>
+        <v>0.2728536272077778</v>
       </c>
       <c r="R4">
-        <v>3.945384179035</v>
+        <v>2.45568264487</v>
       </c>
       <c r="S4">
-        <v>0.00333318148373314</v>
+        <v>0.1242401946968907</v>
       </c>
       <c r="T4">
-        <v>0.003333181483733139</v>
+        <v>0.1242401946968907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.480155</v>
       </c>
       <c r="I5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,25 +738,25 @@
         <v>0.03176033333333333</v>
       </c>
       <c r="N5">
-        <v>0.09528099999999999</v>
+        <v>0.095281</v>
       </c>
       <c r="O5">
-        <v>0.01146281997329701</v>
+        <v>0.01828938111787102</v>
       </c>
       <c r="P5">
-        <v>0.01146281997329701</v>
+        <v>0.01828938111787102</v>
       </c>
       <c r="Q5">
-        <v>0.005083294283888888</v>
+        <v>0.005083294283888889</v>
       </c>
       <c r="R5">
-        <v>0.04574964855499999</v>
+        <v>0.045749648555</v>
       </c>
       <c r="S5">
-        <v>3.865070536378601E-05</v>
+        <v>0.002314609037801145</v>
       </c>
       <c r="T5">
-        <v>3.865070536378601E-05</v>
+        <v>0.002314609037801145</v>
       </c>
     </row>
   </sheetData>
